--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="GRASP (rec_enh_seed)" sheetId="1" r:id="rId1"/>
-    <sheet name="GRASP (rec_seed)" sheetId="4" r:id="rId2"/>
+    <sheet name="GRASP (rec_enh_best_seed)" sheetId="5" r:id="rId1"/>
+    <sheet name="GRASP (rec_enh_seed)" sheetId="1" r:id="rId2"/>
+    <sheet name="GRASP (rec_seed)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Alpha\Instance</t>
   </si>
@@ -74,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -120,11 +121,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -132,11 +144,132 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -849,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -951,7 +1084,7 @@
         <v>22068</v>
       </c>
       <c r="H3">
-        <v>104978</v>
+        <v>105151</v>
       </c>
       <c r="I3">
         <v>95052</v>
@@ -1079,7 +1212,7 @@
         <v>42783759</v>
       </c>
       <c r="D7">
-        <v>131957632</v>
+        <v>132697345</v>
       </c>
       <c r="E7">
         <v>8547</v>
@@ -1212,7 +1345,7 @@
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>20</v>
       </c>
       <c r="C11" s="5">
@@ -1236,10 +1369,10 @@
       <c r="I11" s="5">
         <v>102892</v>
       </c>
-      <c r="J11" s="5">
-        <v>34316</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="J11">
+        <v>34316</v>
+      </c>
+      <c r="K11">
         <v>80775</v>
       </c>
     </row>
@@ -1277,64 +1410,69 @@
         <f t="shared" si="0"/>
         <v>95052</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="6">
         <f t="shared" si="0"/>
         <v>34316</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="6">
         <f t="shared" si="0"/>
         <v>80775</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>$K$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1350,7 +1488,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1626,7 +1764,7 @@
         <v>22068</v>
       </c>
       <c r="H8">
-        <v>106419</v>
+        <v>107254</v>
       </c>
       <c r="I8">
         <v>102892</v>
@@ -1736,10 +1874,10 @@
       <c r="I11" s="5">
         <v>102892</v>
       </c>
-      <c r="J11">
-        <v>34316</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="5">
+        <v>34316</v>
+      </c>
+      <c r="K11" s="5">
         <v>80775</v>
       </c>
     </row>
@@ -1777,6 +1915,506 @@
         <f t="shared" si="0"/>
         <v>95052</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>34316</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>80775</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+      <formula>$B$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
+      <formula>$C$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
+      <formula>$D$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
+      <formula>$E$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F11">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+      <formula>$F$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+      <formula>$G$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+      <formula>$H$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I11">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+      <formula>$I$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J11">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+      <formula>$J$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K11">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+      <formula>$K$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B1:K1" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>44640937</v>
+      </c>
+      <c r="D2">
+        <v>134271479</v>
+      </c>
+      <c r="E2">
+        <v>8547</v>
+      </c>
+      <c r="F2">
+        <v>43064</v>
+      </c>
+      <c r="G2">
+        <v>22068</v>
+      </c>
+      <c r="H2">
+        <v>104833</v>
+      </c>
+      <c r="I2">
+        <v>98148</v>
+      </c>
+      <c r="J2">
+        <v>34316</v>
+      </c>
+      <c r="K2">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>42894321</v>
+      </c>
+      <c r="D3">
+        <v>132987802</v>
+      </c>
+      <c r="E3">
+        <v>8547</v>
+      </c>
+      <c r="F3">
+        <v>43064</v>
+      </c>
+      <c r="G3">
+        <v>22068</v>
+      </c>
+      <c r="H3">
+        <v>104978</v>
+      </c>
+      <c r="I3">
+        <v>95052</v>
+      </c>
+      <c r="J3">
+        <v>34316</v>
+      </c>
+      <c r="K3">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>42783759</v>
+      </c>
+      <c r="D4">
+        <v>132894610</v>
+      </c>
+      <c r="E4">
+        <v>8547</v>
+      </c>
+      <c r="F4">
+        <v>41315</v>
+      </c>
+      <c r="G4">
+        <v>22068</v>
+      </c>
+      <c r="H4">
+        <v>105215</v>
+      </c>
+      <c r="I4">
+        <v>97507</v>
+      </c>
+      <c r="J4">
+        <v>34316</v>
+      </c>
+      <c r="K4">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>42783759</v>
+      </c>
+      <c r="D5">
+        <v>132894610</v>
+      </c>
+      <c r="E5">
+        <v>8547</v>
+      </c>
+      <c r="F5">
+        <v>41315</v>
+      </c>
+      <c r="G5">
+        <v>22068</v>
+      </c>
+      <c r="H5">
+        <v>106441</v>
+      </c>
+      <c r="I5">
+        <v>100560</v>
+      </c>
+      <c r="J5">
+        <v>34316</v>
+      </c>
+      <c r="K5">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>42783759</v>
+      </c>
+      <c r="D6">
+        <v>132894610</v>
+      </c>
+      <c r="E6">
+        <v>8547</v>
+      </c>
+      <c r="F6">
+        <v>41315</v>
+      </c>
+      <c r="G6">
+        <v>22068</v>
+      </c>
+      <c r="H6">
+        <v>106045</v>
+      </c>
+      <c r="I6">
+        <v>99824</v>
+      </c>
+      <c r="J6">
+        <v>34316</v>
+      </c>
+      <c r="K6">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>42783759</v>
+      </c>
+      <c r="D7">
+        <v>131957632</v>
+      </c>
+      <c r="E7">
+        <v>8547</v>
+      </c>
+      <c r="F7">
+        <v>41395</v>
+      </c>
+      <c r="G7">
+        <v>22068</v>
+      </c>
+      <c r="H7">
+        <v>107257</v>
+      </c>
+      <c r="I7">
+        <v>102892</v>
+      </c>
+      <c r="J7">
+        <v>34316</v>
+      </c>
+      <c r="K7">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>42783759</v>
+      </c>
+      <c r="D8">
+        <v>131022310</v>
+      </c>
+      <c r="E8">
+        <v>8501</v>
+      </c>
+      <c r="F8">
+        <v>41385</v>
+      </c>
+      <c r="G8">
+        <v>22068</v>
+      </c>
+      <c r="H8">
+        <v>106419</v>
+      </c>
+      <c r="I8">
+        <v>102892</v>
+      </c>
+      <c r="J8">
+        <v>34316</v>
+      </c>
+      <c r="K8">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>42783759</v>
+      </c>
+      <c r="D9">
+        <v>131498655</v>
+      </c>
+      <c r="E9">
+        <v>8501</v>
+      </c>
+      <c r="F9">
+        <v>41315</v>
+      </c>
+      <c r="G9">
+        <v>22068</v>
+      </c>
+      <c r="H9">
+        <v>108577</v>
+      </c>
+      <c r="I9">
+        <v>102892</v>
+      </c>
+      <c r="J9">
+        <v>34316</v>
+      </c>
+      <c r="K9">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>42783759</v>
+      </c>
+      <c r="D10">
+        <v>132330304</v>
+      </c>
+      <c r="E10">
+        <v>8501</v>
+      </c>
+      <c r="F10">
+        <v>41355</v>
+      </c>
+      <c r="G10">
+        <v>22068</v>
+      </c>
+      <c r="H10">
+        <v>108785</v>
+      </c>
+      <c r="I10">
+        <v>102892</v>
+      </c>
+      <c r="J10">
+        <v>34316</v>
+      </c>
+      <c r="K10">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>42783759</v>
+      </c>
+      <c r="D11" s="5">
+        <v>131593728</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7746</v>
+      </c>
+      <c r="F11" s="5">
+        <v>41144</v>
+      </c>
+      <c r="G11" s="5">
+        <v>22068</v>
+      </c>
+      <c r="H11" s="5">
+        <v>109607</v>
+      </c>
+      <c r="I11" s="5">
+        <v>102892</v>
+      </c>
+      <c r="J11">
+        <v>34316</v>
+      </c>
+      <c r="K11">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <f>MIN(B2:B11)</f>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:K12" si="0">MIN(C2:C11)</f>
+        <v>42783759</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>131022310</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7746</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>41144</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>22068</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>104833</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>95052</v>
+      </c>
       <c r="J12" s="6">
         <f t="shared" si="0"/>
         <v>34316</v>
@@ -1788,52 +2426,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>

--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GRASP (rec_enh_best_seed)" sheetId="5" r:id="rId1"/>
     <sheet name="GRASP (rec_enh_seed)" sheetId="1" r:id="rId2"/>
     <sheet name="GRASP (rec_seed)" sheetId="4" r:id="rId3"/>
+    <sheet name="GRASP (randnode_rec_seed)" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
   <si>
     <t>Alpha\Instance</t>
   </si>
@@ -149,55 +150,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1421,57 +1374,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1926,52 +1879,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1987,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2426,52 +2379,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2481,4 +2434,501 @@
     <ignoredError sqref="B1:K1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>42783759</v>
+      </c>
+      <c r="D2">
+        <v>133241309</v>
+      </c>
+      <c r="E2">
+        <v>7686</v>
+      </c>
+      <c r="F2">
+        <v>39144</v>
+      </c>
+      <c r="G2">
+        <v>22068</v>
+      </c>
+      <c r="H2">
+        <v>103247</v>
+      </c>
+      <c r="I2">
+        <v>95859</v>
+      </c>
+      <c r="J2">
+        <v>34316</v>
+      </c>
+      <c r="K2">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>42630715</v>
+      </c>
+      <c r="D3">
+        <v>132987802</v>
+      </c>
+      <c r="E3">
+        <v>7713</v>
+      </c>
+      <c r="F3">
+        <v>40124</v>
+      </c>
+      <c r="G3">
+        <v>22068</v>
+      </c>
+      <c r="H3">
+        <v>106706</v>
+      </c>
+      <c r="I3">
+        <v>94829</v>
+      </c>
+      <c r="J3">
+        <v>34316</v>
+      </c>
+      <c r="K3">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>42630715</v>
+      </c>
+      <c r="D4">
+        <v>132894610</v>
+      </c>
+      <c r="E4">
+        <v>7375</v>
+      </c>
+      <c r="F4">
+        <v>39274</v>
+      </c>
+      <c r="G4">
+        <v>22068</v>
+      </c>
+      <c r="H4">
+        <v>103674</v>
+      </c>
+      <c r="I4">
+        <v>95797</v>
+      </c>
+      <c r="J4">
+        <v>34316</v>
+      </c>
+      <c r="K4">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>42085075</v>
+      </c>
+      <c r="D5">
+        <v>132894610</v>
+      </c>
+      <c r="E5">
+        <v>7511</v>
+      </c>
+      <c r="F5">
+        <v>39274</v>
+      </c>
+      <c r="G5">
+        <v>22068</v>
+      </c>
+      <c r="H5">
+        <v>106562</v>
+      </c>
+      <c r="I5">
+        <v>98072</v>
+      </c>
+      <c r="J5">
+        <v>34316</v>
+      </c>
+      <c r="K5">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>42085075</v>
+      </c>
+      <c r="D6">
+        <v>132330304</v>
+      </c>
+      <c r="E6">
+        <v>7382</v>
+      </c>
+      <c r="F6">
+        <v>38304</v>
+      </c>
+      <c r="G6">
+        <v>22068</v>
+      </c>
+      <c r="H6">
+        <v>106151</v>
+      </c>
+      <c r="I6">
+        <v>102485</v>
+      </c>
+      <c r="J6">
+        <v>34316</v>
+      </c>
+      <c r="K6">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>42630715</v>
+      </c>
+      <c r="D7">
+        <v>131022310</v>
+      </c>
+      <c r="E7">
+        <v>7382</v>
+      </c>
+      <c r="F7">
+        <v>36628</v>
+      </c>
+      <c r="G7">
+        <v>22068</v>
+      </c>
+      <c r="H7">
+        <v>106937</v>
+      </c>
+      <c r="I7">
+        <v>101839</v>
+      </c>
+      <c r="J7">
+        <v>34316</v>
+      </c>
+      <c r="K7">
+        <v>80343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>42630715</v>
+      </c>
+      <c r="D8">
+        <v>130736205</v>
+      </c>
+      <c r="E8">
+        <v>7370</v>
+      </c>
+      <c r="F8">
+        <v>39214</v>
+      </c>
+      <c r="G8">
+        <v>22068</v>
+      </c>
+      <c r="H8">
+        <v>104879</v>
+      </c>
+      <c r="I8">
+        <v>102892</v>
+      </c>
+      <c r="J8">
+        <v>34316</v>
+      </c>
+      <c r="K8">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>42661819</v>
+      </c>
+      <c r="D9">
+        <v>131719633</v>
+      </c>
+      <c r="E9">
+        <v>7425</v>
+      </c>
+      <c r="F9">
+        <v>40264</v>
+      </c>
+      <c r="G9">
+        <v>22068</v>
+      </c>
+      <c r="H9">
+        <v>108186</v>
+      </c>
+      <c r="I9">
+        <v>102892</v>
+      </c>
+      <c r="J9">
+        <v>34316</v>
+      </c>
+      <c r="K9">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>42630715</v>
+      </c>
+      <c r="D10">
+        <v>131022310</v>
+      </c>
+      <c r="E10">
+        <v>7586</v>
+      </c>
+      <c r="F10">
+        <v>39314</v>
+      </c>
+      <c r="G10">
+        <v>22068</v>
+      </c>
+      <c r="H10">
+        <v>109672</v>
+      </c>
+      <c r="I10">
+        <v>102892</v>
+      </c>
+      <c r="J10">
+        <v>34316</v>
+      </c>
+      <c r="K10">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>42783759</v>
+      </c>
+      <c r="D11" s="5">
+        <v>131022310</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7568</v>
+      </c>
+      <c r="F11" s="5">
+        <v>42164</v>
+      </c>
+      <c r="G11" s="5">
+        <v>22068</v>
+      </c>
+      <c r="H11" s="5">
+        <v>102892</v>
+      </c>
+      <c r="I11" s="5">
+        <v>102892</v>
+      </c>
+      <c r="J11">
+        <v>34316</v>
+      </c>
+      <c r="K11">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <f>MIN(B2:B11)</f>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:K12" si="0">MIN(C2:C11)</f>
+        <v>42085075</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>130736205</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7370</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>36628</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>22068</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>102892</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>94829</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
+        <v>34316</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>80343</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>$B$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>$C$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>$D$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>$E$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F11">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>$F$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>$G$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>$H$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I11">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>$I$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J11">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$J$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$K$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GRASP (rec_enh_best_seed)" sheetId="5" r:id="rId1"/>
     <sheet name="GRASP (rec_enh_seed)" sheetId="1" r:id="rId2"/>
     <sheet name="GRASP (rec_seed)" sheetId="4" r:id="rId3"/>
     <sheet name="GRASP (randnode_rec_seed)" sheetId="6" r:id="rId4"/>
+    <sheet name="GRASP (randnode2_rec_seed)" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
   <si>
     <t>Alpha\Instance</t>
   </si>
@@ -150,7 +151,139 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="52">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1374,57 +1507,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="11" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="10" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="8" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1879,52 +2012,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2379,52 +2512,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2440,8 +2573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2822,7 +2955,7 @@
         <v>22068</v>
       </c>
       <c r="H11" s="5">
-        <v>102892</v>
+        <v>109672</v>
       </c>
       <c r="I11" s="5">
         <v>102892</v>
@@ -2862,7 +2995,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>102892</v>
+        <v>103247</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
@@ -2879,56 +3012,553 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>42783759</v>
+      </c>
+      <c r="D2">
+        <v>132894610</v>
+      </c>
+      <c r="E2">
+        <v>7616</v>
+      </c>
+      <c r="F2">
+        <v>39144</v>
+      </c>
+      <c r="G2">
+        <v>22068</v>
+      </c>
+      <c r="H2">
+        <v>102794</v>
+      </c>
+      <c r="I2">
+        <v>95859</v>
+      </c>
+      <c r="J2">
+        <v>34316</v>
+      </c>
+      <c r="K2">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>42783759</v>
+      </c>
+      <c r="D3">
+        <v>132987802</v>
+      </c>
+      <c r="E3">
+        <v>7375</v>
+      </c>
+      <c r="F3">
+        <v>39254</v>
+      </c>
+      <c r="G3">
+        <v>22068</v>
+      </c>
+      <c r="H3">
+        <v>105772</v>
+      </c>
+      <c r="I3">
+        <v>96026</v>
+      </c>
+      <c r="J3">
+        <v>34316</v>
+      </c>
+      <c r="K3">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>42630715</v>
+      </c>
+      <c r="D4">
+        <v>132894610</v>
+      </c>
+      <c r="E4">
+        <v>7375</v>
+      </c>
+      <c r="F4">
+        <v>38561</v>
+      </c>
+      <c r="G4">
+        <v>22068</v>
+      </c>
+      <c r="H4">
+        <v>106214</v>
+      </c>
+      <c r="I4">
+        <v>95781</v>
+      </c>
+      <c r="J4">
+        <v>34316</v>
+      </c>
+      <c r="K4">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>42085075</v>
+      </c>
+      <c r="D5">
+        <v>132894610</v>
+      </c>
+      <c r="E5">
+        <v>7407</v>
+      </c>
+      <c r="F5">
+        <v>38826</v>
+      </c>
+      <c r="G5">
+        <v>22068</v>
+      </c>
+      <c r="H5">
+        <v>107208</v>
+      </c>
+      <c r="I5">
+        <v>97304</v>
+      </c>
+      <c r="J5">
+        <v>34316</v>
+      </c>
+      <c r="K5">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>42630715</v>
+      </c>
+      <c r="D6">
+        <v>132330304</v>
+      </c>
+      <c r="E6">
+        <v>7382</v>
+      </c>
+      <c r="F6">
+        <v>38485</v>
+      </c>
+      <c r="G6">
+        <v>22068</v>
+      </c>
+      <c r="H6">
+        <v>108199</v>
+      </c>
+      <c r="I6">
+        <v>102892</v>
+      </c>
+      <c r="J6">
+        <v>34316</v>
+      </c>
+      <c r="K6">
+        <v>80236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>42630715</v>
+      </c>
+      <c r="D7">
+        <v>132245121</v>
+      </c>
+      <c r="E7">
+        <v>7610</v>
+      </c>
+      <c r="F7">
+        <v>38334</v>
+      </c>
+      <c r="G7">
+        <v>22068</v>
+      </c>
+      <c r="H7">
+        <v>108760</v>
+      </c>
+      <c r="I7">
+        <v>102005</v>
+      </c>
+      <c r="J7">
+        <v>34316</v>
+      </c>
+      <c r="K7">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>42630715</v>
+      </c>
+      <c r="D8">
+        <v>132245121</v>
+      </c>
+      <c r="E8">
+        <v>7610</v>
+      </c>
+      <c r="F8">
+        <v>38334</v>
+      </c>
+      <c r="G8">
+        <v>22068</v>
+      </c>
+      <c r="H8">
+        <v>108760</v>
+      </c>
+      <c r="I8">
+        <v>102005</v>
+      </c>
+      <c r="J8">
+        <v>34316</v>
+      </c>
+      <c r="K8">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>42447877</v>
+      </c>
+      <c r="D9">
+        <v>131294566</v>
+      </c>
+      <c r="E9">
+        <v>7307</v>
+      </c>
+      <c r="F9">
+        <v>40154</v>
+      </c>
+      <c r="G9">
+        <v>22068</v>
+      </c>
+      <c r="H9">
+        <v>106314</v>
+      </c>
+      <c r="I9">
+        <v>102892</v>
+      </c>
+      <c r="J9">
+        <v>34316</v>
+      </c>
+      <c r="K9">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>42630715</v>
+      </c>
+      <c r="D10">
+        <v>131294566</v>
+      </c>
+      <c r="E10">
+        <v>7503</v>
+      </c>
+      <c r="F10">
+        <v>40234</v>
+      </c>
+      <c r="G10">
+        <v>22068</v>
+      </c>
+      <c r="H10">
+        <v>108986</v>
+      </c>
+      <c r="I10">
+        <v>102892</v>
+      </c>
+      <c r="J10">
+        <v>34316</v>
+      </c>
+      <c r="K10">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>42783759</v>
+      </c>
+      <c r="D11" s="5">
+        <v>131022310</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7434</v>
+      </c>
+      <c r="F11" s="5">
+        <v>42204</v>
+      </c>
+      <c r="G11" s="5">
+        <v>22068</v>
+      </c>
+      <c r="H11" s="5">
+        <v>107522</v>
+      </c>
+      <c r="I11" s="5">
+        <v>102892</v>
+      </c>
+      <c r="J11">
+        <v>34316</v>
+      </c>
+      <c r="K11">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <f>MIN(B2:B11)</f>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:K12" si="0">MIN(C2:C11)</f>
+        <v>42085075</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>131022310</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7307</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>38334</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>22068</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>102794</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>95781</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
+        <v>34316</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>80236</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>$B$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>$C$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>$D$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>$E$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F11">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>$F$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>$G$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>$H$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I11">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>$I$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J11">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>$J$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K11">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$K$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GRASP (rec_enh_best_seed)" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="GRASP (rec_seed)" sheetId="4" r:id="rId3"/>
     <sheet name="GRASP (randnode_rec_seed)" sheetId="6" r:id="rId4"/>
     <sheet name="GRASP (randnode2_rec_seed)" sheetId="7" r:id="rId5"/>
+    <sheet name="GRASP (randnode_rec_seed) FIXED" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
   <si>
     <t>Alpha\Instance</t>
   </si>
@@ -151,7 +152,127 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1507,57 +1628,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="51" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="11" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="50" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="10" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="9" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="48" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2012,52 +2133,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2512,52 +2633,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2574,7 +2695,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3012,52 +3133,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3070,7 +3191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -3509,6 +3630,503 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+      <formula>$B$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>$C$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+      <formula>$D$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>$E$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F11">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+      <formula>$F$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>$G$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>$H$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I11">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>$I$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J11">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>$J$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K11">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>$K$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>42783759</v>
+      </c>
+      <c r="D2">
+        <v>133241309</v>
+      </c>
+      <c r="E2">
+        <v>7616</v>
+      </c>
+      <c r="F2">
+        <v>39144</v>
+      </c>
+      <c r="G2">
+        <v>22068</v>
+      </c>
+      <c r="H2">
+        <v>102617</v>
+      </c>
+      <c r="I2">
+        <v>95859</v>
+      </c>
+      <c r="J2">
+        <v>34316</v>
+      </c>
+      <c r="K2">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>42630715</v>
+      </c>
+      <c r="D3">
+        <v>132987802</v>
+      </c>
+      <c r="E3">
+        <v>7713</v>
+      </c>
+      <c r="F3">
+        <v>40124</v>
+      </c>
+      <c r="G3">
+        <v>22068</v>
+      </c>
+      <c r="H3">
+        <v>105876</v>
+      </c>
+      <c r="I3">
+        <v>94829</v>
+      </c>
+      <c r="J3">
+        <v>34316</v>
+      </c>
+      <c r="K3">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>42630715</v>
+      </c>
+      <c r="D4">
+        <v>131957632</v>
+      </c>
+      <c r="E4">
+        <v>7375</v>
+      </c>
+      <c r="F4">
+        <v>39274</v>
+      </c>
+      <c r="G4">
+        <v>22068</v>
+      </c>
+      <c r="H4">
+        <v>102750</v>
+      </c>
+      <c r="I4">
+        <v>96617</v>
+      </c>
+      <c r="J4">
+        <v>34316</v>
+      </c>
+      <c r="K4">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>42085075</v>
+      </c>
+      <c r="D5">
+        <v>132894610</v>
+      </c>
+      <c r="E5">
+        <v>7511</v>
+      </c>
+      <c r="F5">
+        <v>39274</v>
+      </c>
+      <c r="G5">
+        <v>22068</v>
+      </c>
+      <c r="H5">
+        <v>106562</v>
+      </c>
+      <c r="I5">
+        <v>98072</v>
+      </c>
+      <c r="J5">
+        <v>34316</v>
+      </c>
+      <c r="K5">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>42085075</v>
+      </c>
+      <c r="D6">
+        <v>132330304</v>
+      </c>
+      <c r="E6">
+        <v>7549</v>
+      </c>
+      <c r="F6">
+        <v>38304</v>
+      </c>
+      <c r="G6">
+        <v>22068</v>
+      </c>
+      <c r="H6">
+        <v>106151</v>
+      </c>
+      <c r="I6">
+        <v>102485</v>
+      </c>
+      <c r="J6">
+        <v>34316</v>
+      </c>
+      <c r="K6">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>42630715</v>
+      </c>
+      <c r="D7">
+        <v>131022310</v>
+      </c>
+      <c r="E7">
+        <v>7382</v>
+      </c>
+      <c r="F7">
+        <v>36628</v>
+      </c>
+      <c r="G7">
+        <v>22068</v>
+      </c>
+      <c r="H7">
+        <v>106129</v>
+      </c>
+      <c r="I7">
+        <v>101839</v>
+      </c>
+      <c r="J7">
+        <v>34316</v>
+      </c>
+      <c r="K7">
+        <v>80343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>42630715</v>
+      </c>
+      <c r="D8">
+        <v>130736205</v>
+      </c>
+      <c r="E8">
+        <v>7370</v>
+      </c>
+      <c r="F8">
+        <v>39214</v>
+      </c>
+      <c r="G8">
+        <v>22068</v>
+      </c>
+      <c r="H8">
+        <v>104879</v>
+      </c>
+      <c r="I8">
+        <v>103455</v>
+      </c>
+      <c r="J8">
+        <v>34316</v>
+      </c>
+      <c r="K8">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>42661819</v>
+      </c>
+      <c r="D9">
+        <v>131719633</v>
+      </c>
+      <c r="E9">
+        <v>7425</v>
+      </c>
+      <c r="F9">
+        <v>40264</v>
+      </c>
+      <c r="G9">
+        <v>22068</v>
+      </c>
+      <c r="H9">
+        <v>107586</v>
+      </c>
+      <c r="I9">
+        <v>103455</v>
+      </c>
+      <c r="J9">
+        <v>34316</v>
+      </c>
+      <c r="K9">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>42630715</v>
+      </c>
+      <c r="D10">
+        <v>131022310</v>
+      </c>
+      <c r="E10">
+        <v>7586</v>
+      </c>
+      <c r="F10">
+        <v>39314</v>
+      </c>
+      <c r="G10">
+        <v>22068</v>
+      </c>
+      <c r="H10">
+        <v>109381</v>
+      </c>
+      <c r="I10">
+        <v>103455</v>
+      </c>
+      <c r="J10">
+        <v>34316</v>
+      </c>
+      <c r="K10">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>42783759</v>
+      </c>
+      <c r="D11" s="5">
+        <v>131022310</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7568</v>
+      </c>
+      <c r="F11" s="5">
+        <v>42164</v>
+      </c>
+      <c r="G11" s="5">
+        <v>22068</v>
+      </c>
+      <c r="H11" s="5">
+        <v>109326</v>
+      </c>
+      <c r="I11" s="5">
+        <v>103455</v>
+      </c>
+      <c r="J11">
+        <v>34316</v>
+      </c>
+      <c r="K11">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <f>MIN(B2:B11)</f>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:K12" si="0">MIN(C2:C11)</f>
+        <v>42085075</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>130736205</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7370</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>36628</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>22068</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>102617</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>94829</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
+        <v>34316</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>80343</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B11">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>

--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GRASP (rec_enh_best_seed)" sheetId="5" r:id="rId1"/>
     <sheet name="GRASP (rec_enh_seed)" sheetId="1" r:id="rId2"/>
     <sheet name="GRASP (rec_seed)" sheetId="4" r:id="rId3"/>
-    <sheet name="GRASP (randnode_rec_seed)" sheetId="6" r:id="rId4"/>
-    <sheet name="GRASP (randnode2_rec_seed)" sheetId="7" r:id="rId5"/>
+    <sheet name="GRASP (randnode2_rec_seed)" sheetId="7" r:id="rId4"/>
+    <sheet name="GRASP (randnode_rec_seed)" sheetId="6" r:id="rId5"/>
     <sheet name="GRASP (randnode_rec_seed) FIXED" sheetId="8" r:id="rId6"/>
+    <sheet name="GRASP (randnode_rec_seed) OPT" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="11">
   <si>
     <t>Alpha\Instance</t>
   </si>
@@ -139,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -148,20 +149,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1628,57 +1691,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="61" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="60" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="59" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="8" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2133,52 +2196,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="50" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="48" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2633,52 +2696,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2691,6 +2754,503 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>42783759</v>
+      </c>
+      <c r="D2">
+        <v>132894610</v>
+      </c>
+      <c r="E2">
+        <v>7616</v>
+      </c>
+      <c r="F2">
+        <v>39144</v>
+      </c>
+      <c r="G2">
+        <v>22068</v>
+      </c>
+      <c r="H2">
+        <v>102794</v>
+      </c>
+      <c r="I2">
+        <v>95859</v>
+      </c>
+      <c r="J2">
+        <v>34316</v>
+      </c>
+      <c r="K2">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>42783759</v>
+      </c>
+      <c r="D3">
+        <v>132987802</v>
+      </c>
+      <c r="E3">
+        <v>7375</v>
+      </c>
+      <c r="F3">
+        <v>39254</v>
+      </c>
+      <c r="G3">
+        <v>22068</v>
+      </c>
+      <c r="H3">
+        <v>105772</v>
+      </c>
+      <c r="I3">
+        <v>96026</v>
+      </c>
+      <c r="J3">
+        <v>34316</v>
+      </c>
+      <c r="K3">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>42630715</v>
+      </c>
+      <c r="D4">
+        <v>132894610</v>
+      </c>
+      <c r="E4">
+        <v>7375</v>
+      </c>
+      <c r="F4">
+        <v>38561</v>
+      </c>
+      <c r="G4">
+        <v>22068</v>
+      </c>
+      <c r="H4">
+        <v>106214</v>
+      </c>
+      <c r="I4">
+        <v>95781</v>
+      </c>
+      <c r="J4">
+        <v>34316</v>
+      </c>
+      <c r="K4">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>42085075</v>
+      </c>
+      <c r="D5">
+        <v>132894610</v>
+      </c>
+      <c r="E5">
+        <v>7407</v>
+      </c>
+      <c r="F5">
+        <v>38826</v>
+      </c>
+      <c r="G5">
+        <v>22068</v>
+      </c>
+      <c r="H5">
+        <v>107208</v>
+      </c>
+      <c r="I5">
+        <v>97304</v>
+      </c>
+      <c r="J5">
+        <v>34316</v>
+      </c>
+      <c r="K5">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>42630715</v>
+      </c>
+      <c r="D6">
+        <v>132330304</v>
+      </c>
+      <c r="E6">
+        <v>7382</v>
+      </c>
+      <c r="F6">
+        <v>38485</v>
+      </c>
+      <c r="G6">
+        <v>22068</v>
+      </c>
+      <c r="H6">
+        <v>108199</v>
+      </c>
+      <c r="I6">
+        <v>102892</v>
+      </c>
+      <c r="J6">
+        <v>34316</v>
+      </c>
+      <c r="K6">
+        <v>80236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>42630715</v>
+      </c>
+      <c r="D7">
+        <v>132245121</v>
+      </c>
+      <c r="E7">
+        <v>7610</v>
+      </c>
+      <c r="F7">
+        <v>38334</v>
+      </c>
+      <c r="G7">
+        <v>22068</v>
+      </c>
+      <c r="H7">
+        <v>108760</v>
+      </c>
+      <c r="I7">
+        <v>102005</v>
+      </c>
+      <c r="J7">
+        <v>34316</v>
+      </c>
+      <c r="K7">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>42630715</v>
+      </c>
+      <c r="D8">
+        <v>132245121</v>
+      </c>
+      <c r="E8">
+        <v>7610</v>
+      </c>
+      <c r="F8">
+        <v>38334</v>
+      </c>
+      <c r="G8">
+        <v>22068</v>
+      </c>
+      <c r="H8">
+        <v>108760</v>
+      </c>
+      <c r="I8">
+        <v>102005</v>
+      </c>
+      <c r="J8">
+        <v>34316</v>
+      </c>
+      <c r="K8">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>42447877</v>
+      </c>
+      <c r="D9">
+        <v>131294566</v>
+      </c>
+      <c r="E9">
+        <v>7307</v>
+      </c>
+      <c r="F9">
+        <v>40154</v>
+      </c>
+      <c r="G9">
+        <v>22068</v>
+      </c>
+      <c r="H9">
+        <v>106314</v>
+      </c>
+      <c r="I9">
+        <v>102892</v>
+      </c>
+      <c r="J9">
+        <v>34316</v>
+      </c>
+      <c r="K9">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>42630715</v>
+      </c>
+      <c r="D10">
+        <v>131294566</v>
+      </c>
+      <c r="E10">
+        <v>7503</v>
+      </c>
+      <c r="F10">
+        <v>40234</v>
+      </c>
+      <c r="G10">
+        <v>22068</v>
+      </c>
+      <c r="H10">
+        <v>108986</v>
+      </c>
+      <c r="I10">
+        <v>102892</v>
+      </c>
+      <c r="J10">
+        <v>34316</v>
+      </c>
+      <c r="K10">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>42783759</v>
+      </c>
+      <c r="D11" s="5">
+        <v>131022310</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7434</v>
+      </c>
+      <c r="F11" s="5">
+        <v>42204</v>
+      </c>
+      <c r="G11" s="5">
+        <v>22068</v>
+      </c>
+      <c r="H11" s="5">
+        <v>107522</v>
+      </c>
+      <c r="I11" s="5">
+        <v>102892</v>
+      </c>
+      <c r="J11">
+        <v>34316</v>
+      </c>
+      <c r="K11">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <f>MIN(B2:B11)</f>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:K12" si="0">MIN(C2:C11)</f>
+        <v>42085075</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>131022310</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7307</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>38334</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>22068</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>102794</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>95781</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
+        <v>34316</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>80236</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+      <formula>$B$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+      <formula>$C$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+      <formula>$D$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+      <formula>$E$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F11">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+      <formula>$F$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+      <formula>$G$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+      <formula>$H$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I11">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>$I$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J11">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>$J$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K11">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>$K$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -3133,549 +3693,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
-      <formula>$K$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>42783759</v>
-      </c>
-      <c r="D2">
-        <v>132894610</v>
-      </c>
-      <c r="E2">
-        <v>7616</v>
-      </c>
-      <c r="F2">
-        <v>39144</v>
-      </c>
-      <c r="G2">
-        <v>22068</v>
-      </c>
-      <c r="H2">
-        <v>102794</v>
-      </c>
-      <c r="I2">
-        <v>95859</v>
-      </c>
-      <c r="J2">
-        <v>34316</v>
-      </c>
-      <c r="K2">
-        <v>80775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>42783759</v>
-      </c>
-      <c r="D3">
-        <v>132987802</v>
-      </c>
-      <c r="E3">
-        <v>7375</v>
-      </c>
-      <c r="F3">
-        <v>39254</v>
-      </c>
-      <c r="G3">
-        <v>22068</v>
-      </c>
-      <c r="H3">
-        <v>105772</v>
-      </c>
-      <c r="I3">
-        <v>96026</v>
-      </c>
-      <c r="J3">
-        <v>34316</v>
-      </c>
-      <c r="K3">
-        <v>80775</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>42630715</v>
-      </c>
-      <c r="D4">
-        <v>132894610</v>
-      </c>
-      <c r="E4">
-        <v>7375</v>
-      </c>
-      <c r="F4">
-        <v>38561</v>
-      </c>
-      <c r="G4">
-        <v>22068</v>
-      </c>
-      <c r="H4">
-        <v>106214</v>
-      </c>
-      <c r="I4">
-        <v>95781</v>
-      </c>
-      <c r="J4">
-        <v>34316</v>
-      </c>
-      <c r="K4">
-        <v>80775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>42085075</v>
-      </c>
-      <c r="D5">
-        <v>132894610</v>
-      </c>
-      <c r="E5">
-        <v>7407</v>
-      </c>
-      <c r="F5">
-        <v>38826</v>
-      </c>
-      <c r="G5">
-        <v>22068</v>
-      </c>
-      <c r="H5">
-        <v>107208</v>
-      </c>
-      <c r="I5">
-        <v>97304</v>
-      </c>
-      <c r="J5">
-        <v>34316</v>
-      </c>
-      <c r="K5">
-        <v>80775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>42630715</v>
-      </c>
-      <c r="D6">
-        <v>132330304</v>
-      </c>
-      <c r="E6">
-        <v>7382</v>
-      </c>
-      <c r="F6">
-        <v>38485</v>
-      </c>
-      <c r="G6">
-        <v>22068</v>
-      </c>
-      <c r="H6">
-        <v>108199</v>
-      </c>
-      <c r="I6">
-        <v>102892</v>
-      </c>
-      <c r="J6">
-        <v>34316</v>
-      </c>
-      <c r="K6">
-        <v>80236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>42630715</v>
-      </c>
-      <c r="D7">
-        <v>132245121</v>
-      </c>
-      <c r="E7">
-        <v>7610</v>
-      </c>
-      <c r="F7">
-        <v>38334</v>
-      </c>
-      <c r="G7">
-        <v>22068</v>
-      </c>
-      <c r="H7">
-        <v>108760</v>
-      </c>
-      <c r="I7">
-        <v>102005</v>
-      </c>
-      <c r="J7">
-        <v>34316</v>
-      </c>
-      <c r="K7">
-        <v>80775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>42630715</v>
-      </c>
-      <c r="D8">
-        <v>132245121</v>
-      </c>
-      <c r="E8">
-        <v>7610</v>
-      </c>
-      <c r="F8">
-        <v>38334</v>
-      </c>
-      <c r="G8">
-        <v>22068</v>
-      </c>
-      <c r="H8">
-        <v>108760</v>
-      </c>
-      <c r="I8">
-        <v>102005</v>
-      </c>
-      <c r="J8">
-        <v>34316</v>
-      </c>
-      <c r="K8">
-        <v>80775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>42447877</v>
-      </c>
-      <c r="D9">
-        <v>131294566</v>
-      </c>
-      <c r="E9">
-        <v>7307</v>
-      </c>
-      <c r="F9">
-        <v>40154</v>
-      </c>
-      <c r="G9">
-        <v>22068</v>
-      </c>
-      <c r="H9">
-        <v>106314</v>
-      </c>
-      <c r="I9">
-        <v>102892</v>
-      </c>
-      <c r="J9">
-        <v>34316</v>
-      </c>
-      <c r="K9">
-        <v>80775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>42630715</v>
-      </c>
-      <c r="D10">
-        <v>131294566</v>
-      </c>
-      <c r="E10">
-        <v>7503</v>
-      </c>
-      <c r="F10">
-        <v>40234</v>
-      </c>
-      <c r="G10">
-        <v>22068</v>
-      </c>
-      <c r="H10">
-        <v>108986</v>
-      </c>
-      <c r="I10">
-        <v>102892</v>
-      </c>
-      <c r="J10">
-        <v>34316</v>
-      </c>
-      <c r="K10">
-        <v>80775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5">
-        <v>42783759</v>
-      </c>
-      <c r="D11" s="5">
-        <v>131022310</v>
-      </c>
-      <c r="E11" s="5">
-        <v>7434</v>
-      </c>
-      <c r="F11" s="5">
-        <v>42204</v>
-      </c>
-      <c r="G11" s="5">
-        <v>22068</v>
-      </c>
-      <c r="H11" s="5">
-        <v>107522</v>
-      </c>
-      <c r="I11" s="5">
-        <v>102892</v>
-      </c>
-      <c r="J11">
-        <v>34316</v>
-      </c>
-      <c r="K11">
-        <v>80775</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12">
-        <f>MIN(B2:B11)</f>
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:K12" si="0">MIN(C2:C11)</f>
-        <v>42085075</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>131022310</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>7307</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>38334</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>22068</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>102794</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>95781</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="0"/>
-        <v>34316</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="0"/>
-        <v>80236</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
-      <formula>$B$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
-      <formula>$C$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
-      <formula>$D$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
-      <formula>$E$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
-      <formula>$F$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
-      <formula>$G$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
-      <formula>$H$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
-      <formula>$I$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
-      <formula>$J$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3688,7 +3751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -4127,56 +4190,270 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>0.625</v>
+      </c>
+      <c r="B2">
+        <v>132311488</v>
+      </c>
+      <c r="D2">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E2">
+        <v>38485</v>
+      </c>
+      <c r="G2">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H2">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>0.65</v>
+      </c>
+      <c r="B3">
+        <v>131719633</v>
+      </c>
+      <c r="D3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E3">
+        <v>39244</v>
+      </c>
+      <c r="G3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H3">
+        <v>80122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="B4">
+        <v>131719633</v>
+      </c>
+      <c r="D4">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E4">
+        <v>39264</v>
+      </c>
+      <c r="G4">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="H4">
+        <v>80343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>0.7</v>
+      </c>
+      <c r="B5">
+        <f>'GRASP (randnode_rec_seed) FIXED'!D8</f>
+        <v>130736205</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+      <c r="E5">
+        <f>'GRASP (randnode_rec_seed) FIXED'!F7</f>
+        <v>36628</v>
+      </c>
+      <c r="G5">
+        <v>0.6</v>
+      </c>
+      <c r="H5">
+        <f>'GRASP (randnode_rec_seed) FIXED'!K7</f>
+        <v>80343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="B6">
+        <v>130402818</v>
+      </c>
+      <c r="D6">
+        <v>0.625</v>
+      </c>
+      <c r="E6">
+        <v>36628</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="H6" s="9">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>0.75</v>
+      </c>
+      <c r="B7">
+        <v>131022310</v>
+      </c>
+      <c r="D7">
+        <v>0.65</v>
+      </c>
+      <c r="E7">
+        <v>37394</v>
+      </c>
+      <c r="G7">
+        <v>0.65</v>
+      </c>
+      <c r="H7">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="B8" s="5">
+        <v>132658503</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E8" s="5">
+        <v>40244</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H8" s="5">
+        <v>80775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9">
+        <f>MIN(B2:B8)</f>
+        <v>130402818</v>
+      </c>
+      <c r="E9">
+        <f>MIN(E2:E8)</f>
+        <v>36628</v>
+      </c>
+      <c r="H9">
+        <f>MIN(H2:H8)</f>
+        <v>80122</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B8">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E8">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>$E$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$H$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GRASP (rec_enh_best_seed)" sheetId="5" r:id="rId1"/>
@@ -155,43 +155,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1691,57 +1655,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="11" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="10" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="9" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="63" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="7" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2196,52 +2160,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="55" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="53" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="52" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="50" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2696,52 +2660,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3196,52 +3160,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3254,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3693,52 +3657,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4190,52 +4154,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>$B$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>$F$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>$I$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>$J$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$K$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4248,8 +4212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4440,12 +4404,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B8">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E8">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$E$9</formula>
     </cfRule>
   </conditionalFormatting>
